--- a/batter.xlsx
+++ b/batter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webd\ipl-cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EC992A-83DC-41F0-AAE4-3ED40C6DB5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB8B417-A557-4288-902A-DFD357734482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="252">
   <si>
     <t>Name</t>
   </si>
@@ -629,13 +629,175 @@
   </si>
   <si>
     <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/ipl/IPLHeadshot2023/1580.png</t>
+  </si>
+  <si>
+    <t>Surya Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sherfane Rutherford</t>
+  </si>
+  <si>
+    <t>KS Bharat</t>
+  </si>
+  <si>
+    <t>Angkrish Raghu.</t>
+  </si>
+  <si>
+    <t>Rahman. Gurbaz</t>
+  </si>
+  <si>
+    <t>Kane William.</t>
+  </si>
+  <si>
+    <t>Robin minz</t>
+  </si>
+  <si>
+    <t>Quinton De Kock</t>
+  </si>
+  <si>
+    <t>Ashton Turner</t>
+  </si>
+  <si>
+    <t>Shashank Singh</t>
+  </si>
+  <si>
+    <t>Prabh. SIngh</t>
+  </si>
+  <si>
+    <t>Liam Livingston</t>
+  </si>
+  <si>
+    <t>Travis Head</t>
+  </si>
+  <si>
+    <t>Nitish Reddy</t>
+  </si>
+  <si>
+    <t>Upengra Yadav</t>
+  </si>
+  <si>
+    <t>Suyash Prabhu.</t>
+  </si>
+  <si>
+    <t>Saurav Chuahan</t>
+  </si>
+  <si>
+    <t>Yashasvi Jaiswal</t>
+  </si>
+  <si>
+    <t>Kunal Rathore</t>
+  </si>
+  <si>
+    <t>Tom Cadmore</t>
+  </si>
+  <si>
+    <t>Sameer Rizvi</t>
+  </si>
+  <si>
+    <t>Shai Hope</t>
+  </si>
+  <si>
+    <t>Swastik Chhikara</t>
+  </si>
+  <si>
+    <t>Abhishek Porel</t>
+  </si>
+  <si>
+    <t>Ricky Bhui</t>
+  </si>
+  <si>
+    <t>Kumar Kushagra</t>
+  </si>
+  <si>
+    <t>Tristan Stubbs</t>
+  </si>
+  <si>
+    <t>10L</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>wi</t>
+  </si>
+  <si>
+    <t>aus</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRZOPjZOniuwmVxe8zzAAESZBGsF3TG7O3m6w&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://bcciplayerimages.s3.ap-south-1.amazonaws.com/playerheadshot/ipl/284/2734.png</t>
+  </si>
+  <si>
+    <t>https://images.news9live.com/wp-content/uploads/2023/04/New-Project-2023-04-08T184042.102.jpg?w=1200&amp;enlarge=true</t>
+  </si>
+  <si>
+    <t>https://www.kkr.in/static-assets/images/players/2020/88352.png?v=5.33&amp;w=200</t>
+  </si>
+  <si>
+    <t>https://assets.iplt20.com/ipl/IPLHeadshot2022/5430.png</t>
+  </si>
+  <si>
+    <t>https://www.lucknowsupergiants.in/static-assets/images/players/58635.png?v=8.2</t>
+  </si>
+  <si>
+    <t>https://static-files.cricket-australia.pulselive.com/headshots/440/138-camedia.png</t>
+  </si>
+  <si>
+    <t>https://www.punjabkingsipl.in/static-assets/images/players/63520.png?v=5.88</t>
+  </si>
+  <si>
+    <t>https://vipercricketstats.files.wordpress.com/2021/01/travis-head-bbl09.png?w=350&amp;h=500&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://assets.iplt20.com/ipl/IPLHeadshot2022/5471.png</t>
+  </si>
+  <si>
+    <t>https://www.royalchallengers.com/PRRCB01/public/2023-12/saurav%20chauhan.png</t>
+  </si>
+  <si>
+    <t>https://assets.iplt20.com/ipl/IPLHeadshot2022/3333.png</t>
+  </si>
+  <si>
+    <t>https://www.rajasthanroyals.com/static-assets/images/players/64177.png?v=5.91</t>
+  </si>
+  <si>
+    <t>https://d13ir53smqqeyp.cloudfront.net/fc-player-images/21214.png</t>
+  </si>
+  <si>
+    <t>https://assets.iplt20.com/ipl/IPLHeadshot2022/2972.png</t>
+  </si>
+  <si>
+    <t>https://resources.pulse.icc-cricket.com/players/284/2751.png</t>
+  </si>
+  <si>
+    <t>https://i1.wp.com/crictoday.com/wp-content/uploads/2024/01/images-1.webp?ssl=1</t>
+  </si>
+  <si>
+    <t>https://d13ir53smqqeyp.cloudfront.net/fc-player-images/1882.png</t>
+  </si>
+  <si>
+    <t>https://images-cricketcom.imgix.net/players/74097_headshot_safari.png?auto=format,compress</t>
+  </si>
+  <si>
+    <t>https://assets.iplt20.com/ipl/IPLHeadshot2022/20631.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +824,36 @@
       <color rgb="FF99C794"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1B1B27"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B27"/>
+      <name val="Romagna-Regular"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B27"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -714,7 +906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -737,12 +929,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,6 +984,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1059,18 +1287,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1099,554 +1327,2477 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>395</v>
+      </c>
+      <c r="E2" s="2">
+        <v>19.75</v>
+      </c>
+      <c r="F2" s="2">
+        <v>137.63</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>775</v>
+      </c>
+      <c r="E4" s="2">
+        <v>32.29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>131.36000000000001</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2">
+        <v>172</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4400</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30.99</v>
+      </c>
+      <c r="F5" s="2">
+        <v>123.42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>154</v>
+      </c>
+      <c r="E7" s="2">
+        <v>19.14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>122.94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>220</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>115.79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="18">
+        <v>121</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2714</v>
+      </c>
+      <c r="E10" s="18">
+        <v>36.68</v>
+      </c>
+      <c r="F10" s="18">
+        <v>138.4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B11" s="2">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D11" s="2">
+        <v>6397</v>
+      </c>
+      <c r="E11" s="2">
+        <v>41.54</v>
+      </c>
+      <c r="F11" s="2">
+        <v>139.91999999999999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1521</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27.65</v>
+      </c>
+      <c r="F12" s="2">
+        <v>125.39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>924</v>
+      </c>
+      <c r="E13" s="2">
+        <v>48.63</v>
+      </c>
+      <c r="F13" s="2">
+        <v>141.28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>161</v>
+      </c>
+      <c r="E14" s="2">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>142.47999999999999</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>152</v>
+      </c>
+      <c r="E15" s="2">
+        <v>21.71</v>
+      </c>
+      <c r="F15" s="2">
+        <v>172.73</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2">
+        <v>242</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4516</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25.81</v>
+      </c>
+      <c r="F16" s="2">
+        <v>132.91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="2">
+        <v>130</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4133</v>
+      </c>
+      <c r="E18" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>134.13999999999999</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="19">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="F19" s="2">
+        <v>118.18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2">
+        <v>25.67</v>
+      </c>
+      <c r="F20" s="2">
+        <v>130.51</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="19">
+        <v>190</v>
+      </c>
+      <c r="E21" s="2">
+        <v>21.11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>123.38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>514</v>
+      </c>
+      <c r="E22" s="19">
+        <v>36.71</v>
+      </c>
+      <c r="F22" s="19">
+        <v>165.81</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="19">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2324</v>
+      </c>
+      <c r="E23" s="2">
+        <v>29.42</v>
+      </c>
+      <c r="F23" s="19">
+        <v>134.26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>614</v>
+      </c>
+      <c r="E24" s="2">
+        <v>32.32</v>
+      </c>
+      <c r="F24" s="2">
+        <v>138.6</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>543</v>
+      </c>
+      <c r="E25" s="2">
+        <v>25.86</v>
+      </c>
+      <c r="F25" s="2">
+        <v>159.24</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1291</v>
+      </c>
+      <c r="E26" s="2">
+        <v>35.86</v>
+      </c>
+      <c r="F26" s="2">
+        <v>142.65</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28.8" thickBot="1">
+      <c r="A27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2">
+        <v>96</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3223</v>
+      </c>
+      <c r="E27" s="2">
+        <v>37.92</v>
+      </c>
+      <c r="F27" s="2">
+        <v>148.32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="18">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2101</v>
+      </c>
+      <c r="E28" s="18">
+        <v>36.22</v>
+      </c>
+      <c r="F28" s="18">
+        <v>126.03</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>516</v>
-      </c>
-      <c r="E2" s="2">
-        <v>36.86</v>
-      </c>
-      <c r="F2" s="2">
-        <v>131.63</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D29" s="2">
+        <v>4163</v>
+      </c>
+      <c r="E29" s="2">
+        <v>46.78</v>
+      </c>
+      <c r="F29" s="2">
+        <v>134.41999999999999</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>199</v>
+      </c>
+      <c r="E30" s="2">
+        <v>28.43</v>
+      </c>
+      <c r="F30" s="2">
+        <v>122.09</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="40.799999999999997" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="2">
+        <v>828</v>
+      </c>
+      <c r="E33" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="F33" s="2">
+        <v>165.5</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2">
+        <v>250</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>5082</v>
+      </c>
+      <c r="E34" s="2">
+        <v>38.79</v>
+      </c>
+      <c r="F34" s="2">
+        <v>135.91999999999999</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="2">
+        <v>170</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3808</v>
+      </c>
+      <c r="E35" s="2">
+        <v>29.07</v>
+      </c>
+      <c r="F35" s="2">
+        <v>120.97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="18">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="18">
+        <v>179</v>
+      </c>
+      <c r="E36" s="18">
+        <v>13.77</v>
+      </c>
+      <c r="F36" s="18">
+        <v>104.68</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="H36" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2">
+        <v>123</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2597</v>
+      </c>
+      <c r="E37" s="2">
+        <v>22.98</v>
+      </c>
+      <c r="F37" s="2">
+        <v>133.66</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="2">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1270</v>
+      </c>
+      <c r="E38" s="2">
+        <v>27.02</v>
+      </c>
+      <c r="F38" s="2">
+        <v>156.79</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2594</v>
+      </c>
+      <c r="E39" s="2">
+        <v>28.82</v>
+      </c>
+      <c r="F39" s="2">
+        <v>135.25</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="2">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>422</v>
+      </c>
+      <c r="E41" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>138.82</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2">
+        <v>71</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1694</v>
+      </c>
+      <c r="E42" s="2">
+        <v>23.86</v>
+      </c>
+      <c r="F42" s="2">
+        <v>145.78</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="2">
+        <v>96</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2907</v>
+      </c>
+      <c r="E43" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F43" s="2">
+        <v>134.21</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="2">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
-        <v>95.65</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="C44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>227</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20.64</v>
+      </c>
+      <c r="F44" s="2">
+        <v>133.53</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2">
+        <v>89</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2071</v>
+      </c>
+      <c r="E45" s="2">
+        <v>27.25</v>
+      </c>
+      <c r="F45" s="2">
+        <v>138.99</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="2">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2">
+        <v>404</v>
+      </c>
+      <c r="E46" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>144.29</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2">
+        <v>41.18</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="2">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>262</v>
+      </c>
+      <c r="E48" s="2">
+        <v>21.83</v>
+      </c>
+      <c r="F48" s="2">
+        <v>136.46</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="2">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="2">
+        <v>725</v>
+      </c>
+      <c r="E49" s="2">
+        <v>36.25</v>
+      </c>
+      <c r="F49" s="2">
+        <v>142.16</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2838</v>
+      </c>
+      <c r="E50" s="2">
+        <v>34.61</v>
+      </c>
+      <c r="F50" s="2">
+        <v>147.97</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>600</v>
+      </c>
+      <c r="E51" s="2">
+        <v>16.22</v>
+      </c>
+      <c r="F51" s="2">
+        <v>123.97</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="18">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="18">
+        <v>0</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2">
+        <v>243</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>6211</v>
+      </c>
+      <c r="E53" s="2">
+        <v>29.58</v>
+      </c>
+      <c r="F53" s="2">
+        <v>130.05000000000001</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="2">
+        <v>17</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2">
+        <v>257</v>
+      </c>
+      <c r="E54" s="2">
+        <v>19.77</v>
+      </c>
+      <c r="F54" s="2">
+        <v>146.22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1797</v>
+      </c>
+      <c r="E55" s="2">
+        <v>39.07</v>
+      </c>
+      <c r="F55" s="2">
+        <v>135.52000000000001</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="2">
+        <v>152</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>3888</v>
+      </c>
+      <c r="E57" s="2">
+        <v>29.23</v>
+      </c>
+      <c r="F57" s="2">
+        <v>137.19</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="2">
+        <v>10</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>17.25</v>
+      </c>
+      <c r="F61" s="2">
+        <v>146.81</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="40.799999999999997" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="2">
+        <v>10</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
         <v>106</v>
       </c>
-      <c r="E4" s="2">
-        <v>13.25</v>
-      </c>
-      <c r="F4" s="2">
-        <v>124.71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="E62" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="F62" s="2">
+        <v>101.92</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="2">
+        <v>217</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6617</v>
+      </c>
+      <c r="E63" s="2">
+        <v>33.590000000000003</v>
+      </c>
+      <c r="F63" s="2">
+        <v>127.18</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1131</v>
+      </c>
+      <c r="E64" s="2">
+        <v>32.31</v>
+      </c>
+      <c r="F64" s="2">
+        <v>152.22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="2">
         <v>101</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2776</v>
+      </c>
+      <c r="E65" s="2">
+        <v>31.55</v>
+      </c>
+      <c r="F65" s="2">
+        <v>125.38</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" thickBot="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="18">
+        <v>91</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="18">
+        <v>2790</v>
+      </c>
+      <c r="E67" s="18">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F67" s="18">
+        <v>134.07</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="2">
+        <v>124</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3249</v>
+      </c>
+      <c r="E68" s="2">
+        <v>31.85</v>
+      </c>
+      <c r="F68" s="2">
+        <v>143.32</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="2">
+        <v>10</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D69" s="2">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2">
+        <v>11.33</v>
+      </c>
+      <c r="F69" s="2">
+        <v>115.91</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="2">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2">
+        <v>745</v>
+      </c>
+      <c r="E71" s="2">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="F71" s="2">
+        <v>144.53</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2">
+        <v>25</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2">
+        <v>418</v>
+      </c>
+      <c r="E72" s="2">
+        <v>27.77</v>
+      </c>
+      <c r="F72" s="2">
+        <v>177.87</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="42.6" thickBot="1">
+      <c r="A73" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" s="2">
+        <v>10</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.33</v>
-      </c>
-      <c r="F5" s="2">
-        <v>77.78</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D74" s="2">
+        <v>205</v>
+      </c>
+      <c r="E74" s="2">
+        <v>29.29</v>
+      </c>
+      <c r="F74" s="2">
+        <v>138.51</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>27</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="F75" s="2">
+        <v>77.14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>237</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>7263</v>
+      </c>
+      <c r="E77" s="2">
+        <v>37.25</v>
+      </c>
+      <c r="F77" s="2">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="2">
+        <v>6</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>49</v>
-      </c>
-      <c r="E6" s="2">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="F6" s="2">
-        <v>113.95</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="D78" s="2">
+        <v>56</v>
+      </c>
+      <c r="E78" s="2">
+        <v>9.33</v>
+      </c>
+      <c r="F78" s="2">
+        <v>98.25</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="18">
+        <v>161</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="18">
+        <v>2798</v>
+      </c>
+      <c r="E80" s="18">
+        <v>24.98</v>
+      </c>
+      <c r="F80" s="18">
+        <v>128.05000000000001</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2">
-        <v>13.25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>85.48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E81" s="2">
         <v>5.33</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F81" s="2">
         <v>69.569999999999993</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="G81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>110</v>
-      </c>
-      <c r="E9" s="2">
-        <v>13.75</v>
-      </c>
-      <c r="F9" s="2">
-        <v>108.91</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="82" spans="1:9" ht="27.6" thickBot="1">
+      <c r="A82" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="2">
+        <v>37</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
-        <v>218</v>
-      </c>
-      <c r="E10" s="2">
-        <v>27.25</v>
-      </c>
-      <c r="F10" s="2">
-        <v>163.91</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>160</v>
-      </c>
-      <c r="E11" s="2">
-        <v>17.78</v>
-      </c>
-      <c r="F11" s="2">
-        <v>109.59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>209</v>
-      </c>
-      <c r="E12" s="2">
-        <v>29.86</v>
-      </c>
-      <c r="F12" s="2">
-        <v>148.22999999999999</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2">
-        <v>8.25</v>
-      </c>
-      <c r="F13" s="2">
-        <v>106.45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="6"/>
+      <c r="D82" s="2">
+        <v>1172</v>
+      </c>
+      <c r="E82" s="2">
+        <v>32.56</v>
+      </c>
+      <c r="F82" s="2">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" thickBot="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" thickBot="1">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" thickBot="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="H86" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="H87" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="H88" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="H89" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="H90" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="H91" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
+    <sortCondition ref="A1:A96"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{3BFCD0F6-8A9A-4F8C-B23C-7A996BC3D9B8}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{119D792E-CDD8-42EE-B6DF-A18A4F664BCC}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{2B101514-F4D0-4A32-915C-0638B2B8CE4E}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{2DC2F6BB-AE0C-4495-BAB8-B7ACE053E053}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{B0FD2C37-3C50-443B-9612-14564091551F}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{70055B08-1B68-4F25-B57C-D59BC01801D7}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{DBD2E2D2-749D-482F-A7F0-AB5DA3817F18}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{83C9F627-153E-412D-8714-5DB72AD30C43}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{207F7185-FE94-4421-8E07-8595A39A93B4}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{D4391F52-E188-49CB-BE44-BD067F4C71A4}"/>
-    <hyperlink ref="I12" r:id="rId11" xr:uid="{2DF26D9A-95C3-4746-904B-9C00168C81DD}"/>
-    <hyperlink ref="I13" r:id="rId12" xr:uid="{9626B040-E86C-484A-9409-F711C69D4E22}"/>
+    <hyperlink ref="I53" r:id="rId1" xr:uid="{1651007A-664A-436C-9AEB-A09A02C22205}"/>
+    <hyperlink ref="I68" r:id="rId2" xr:uid="{3D68CD93-EBC2-4D30-999C-E59AABD03802}"/>
+    <hyperlink ref="I71" r:id="rId3" xr:uid="{EE2A1AC0-25D5-481F-9DC6-FAB41DB4FD34}"/>
+    <hyperlink ref="I72" r:id="rId4" xr:uid="{5F7655FC-4ED1-4613-9D1F-5EC39D768F0D}"/>
+    <hyperlink ref="I78" r:id="rId5" xr:uid="{9A51CBAC-C680-40D3-9B80-71C8EF75B9D8}"/>
+    <hyperlink ref="I61" r:id="rId6" xr:uid="{699C87C8-C53C-442D-8A00-0A28C71586B7}"/>
+    <hyperlink ref="I63" r:id="rId7" xr:uid="{1B5C9051-B8B8-4CD2-A2B2-E8DB4EF98766}"/>
+    <hyperlink ref="I74" r:id="rId8" xr:uid="{A4C32B06-1325-4EC2-8175-B5B188C7DDF6}"/>
+    <hyperlink ref="I76" r:id="rId9" xr:uid="{B3B35D4E-D3C8-4228-8F2E-1719CBDF2E8D}"/>
+    <hyperlink ref="I77" r:id="rId10" xr:uid="{B96F4376-F22B-4FBB-B73E-5A765D90ED03}"/>
+    <hyperlink ref="I69" r:id="rId11" xr:uid="{79ED1A7C-6490-47A6-8410-D0787674AD98}"/>
+    <hyperlink ref="I79" r:id="rId12" xr:uid="{C5CE9A6A-6A49-4198-B31D-61C941CD68BD}"/>
+    <hyperlink ref="I58" r:id="rId13" display="https://www.royalchallengers.com/PRRCB01/public/2023-12/saurav chauhan.png" xr:uid="{4C86DF5E-AC93-4E54-8AB9-8CFAF80E05B2}"/>
+    <hyperlink ref="I64" r:id="rId14" xr:uid="{8619F54A-7300-426C-A873-A12C35C6DD84}"/>
+    <hyperlink ref="I82" r:id="rId15" xr:uid="{16A236A0-8F7A-4151-90B1-66EF8970BE3F}"/>
+    <hyperlink ref="I54" r:id="rId16" xr:uid="{821581B7-2228-481A-AD7C-14270CFD7505}"/>
+    <hyperlink ref="I73" r:id="rId17" xr:uid="{CC336A1B-A5EE-4501-B717-A6344939B80A}"/>
+    <hyperlink ref="I57" r:id="rId18" xr:uid="{BFE1FDF5-DCE9-4CD6-9BDC-B5F71859B835}"/>
+    <hyperlink ref="I55" r:id="rId19" xr:uid="{34DDF5EC-BA53-4CD9-BF0A-BB5B62CA0018}"/>
+    <hyperlink ref="I60" r:id="rId20" xr:uid="{6F15EDA5-31A6-4262-B187-AB05806A189E}"/>
+    <hyperlink ref="I56" r:id="rId21" xr:uid="{210C5287-5D02-4E3D-9895-EAFAC434F09B}"/>
+    <hyperlink ref="I81" r:id="rId22" xr:uid="{DDF09F8C-806A-4B7C-9D58-5A7A58C7D7B8}"/>
+    <hyperlink ref="I59" r:id="rId23" xr:uid="{9EB6B41B-249E-4B2B-B1C2-84EF2A5437C6}"/>
+    <hyperlink ref="I70" r:id="rId24" xr:uid="{E4D2E3A1-F9AB-4139-84C0-74A90EB44AF4}"/>
+    <hyperlink ref="I75" r:id="rId25" xr:uid="{23C40AD9-54EB-4978-A8E7-FFB0FB050023}"/>
+    <hyperlink ref="I31" r:id="rId26" xr:uid="{75E4FE11-9DBA-4F67-86C8-FC388445FC13}"/>
+    <hyperlink ref="I47" r:id="rId27" xr:uid="{04CC8029-FD95-4ACD-941D-85780306D4E1}"/>
+    <hyperlink ref="I21" r:id="rId28" xr:uid="{51E7541C-F17C-4F6E-A09F-5263FDA27114}"/>
+    <hyperlink ref="I3" r:id="rId29" xr:uid="{3BF3B803-EE1D-4229-8FB3-9AD55E97A07C}"/>
+    <hyperlink ref="I42" r:id="rId30" xr:uid="{D1680393-CEDD-45D4-BF0D-004793F6D082}"/>
+    <hyperlink ref="I11" r:id="rId31" xr:uid="{FEC87E1D-6169-496E-9D8C-29DEBD2EB761}"/>
+    <hyperlink ref="I50" r:id="rId32" xr:uid="{82C8587E-D134-43AD-B27E-24F558018328}"/>
+    <hyperlink ref="I5" r:id="rId33" xr:uid="{7A4F81C9-291F-48BF-90F8-D859BBBBA6C4}"/>
+    <hyperlink ref="I13" r:id="rId34" xr:uid="{D8036A18-5CA0-4DC9-A6A5-BA72E0EACE22}"/>
+    <hyperlink ref="I34" r:id="rId35" xr:uid="{1271EDCE-BE8E-4C8A-8F72-BABD4348163D}"/>
+    <hyperlink ref="I32" r:id="rId36" xr:uid="{C3A8B751-5C75-430A-BFCA-8369C79231D6}"/>
+    <hyperlink ref="I27" r:id="rId37" xr:uid="{2B78B71F-6CAB-4B3A-836C-8F8CB8537A0A}"/>
+    <hyperlink ref="I17" r:id="rId38" xr:uid="{C402DE6E-5133-4626-AA9C-6DC5B5AD93A7}"/>
+    <hyperlink ref="I15" r:id="rId39" xr:uid="{2D1B163F-B645-4BC0-8564-B147881EF478}"/>
+    <hyperlink ref="I51" r:id="rId40" xr:uid="{DE9C1E7C-FC01-4224-8845-C870BFA0D2AA}"/>
+    <hyperlink ref="I16" r:id="rId41" xr:uid="{BFD468B1-4ABD-4558-AC21-625AA7BC6AF5}"/>
+    <hyperlink ref="I8" r:id="rId42" xr:uid="{B4943765-76A0-4DFC-8022-9F04243D4274}"/>
+    <hyperlink ref="I46" r:id="rId43" xr:uid="{4ADFC208-87AE-4F3F-A2B0-83B3A6EE1ED2}"/>
+    <hyperlink ref="I18" r:id="rId44" xr:uid="{8BDAAB5C-FB77-459D-B5EF-0033B20E2C06}"/>
+    <hyperlink ref="I22" r:id="rId45" xr:uid="{0ED4319F-58D3-47B7-8355-13E37937512F}"/>
+    <hyperlink ref="I40" r:id="rId46" xr:uid="{8D7F5420-6BA2-4941-B125-9032A727D656}"/>
+    <hyperlink ref="I7" r:id="rId47" xr:uid="{F2D01367-BCAA-48C2-965F-88C674D5712E}"/>
+    <hyperlink ref="I37" r:id="rId48" xr:uid="{5FB0EB74-91E1-44B3-B44E-4DE926BB99A7}"/>
+    <hyperlink ref="I19" r:id="rId49" xr:uid="{0783518A-0E3C-4CF8-B5ED-A715898B7E5C}"/>
+    <hyperlink ref="I45" r:id="rId50" xr:uid="{20F3612F-322F-4F56-9772-A0D3EDA934B2}"/>
+    <hyperlink ref="I4" r:id="rId51" xr:uid="{2535ABB2-0ACC-476F-B966-77A3E7E3E38A}"/>
+    <hyperlink ref="I2" r:id="rId52" xr:uid="{5272F684-ECDF-40E6-BB15-D56AFEF1872A}"/>
+    <hyperlink ref="I33" r:id="rId53" xr:uid="{156C94C0-C2B7-4829-8842-CDC3A412178F}"/>
+    <hyperlink ref="I41" r:id="rId54" xr:uid="{E544BA6C-547F-4038-8A3C-8FE1F132647A}"/>
+    <hyperlink ref="I26" r:id="rId55" xr:uid="{6778A3DE-7DC4-4C8C-AEC4-82FCF3CF9500}"/>
+    <hyperlink ref="I25" r:id="rId56" xr:uid="{47AC2593-5340-48F3-BEEA-B46F6A5D577B}"/>
+    <hyperlink ref="I20" r:id="rId57" xr:uid="{43F20EA2-1B2C-4CD4-98CE-57AC187317BB}"/>
+    <hyperlink ref="I48" r:id="rId58" xr:uid="{40AD9AEB-D13A-4D87-8B54-4A634C4B0DC8}"/>
+    <hyperlink ref="I9" r:id="rId59" xr:uid="{0BE89147-A540-43B2-AC7C-5FC7C821329B}"/>
+    <hyperlink ref="I12" r:id="rId60" xr:uid="{1727E1AC-210F-41D1-8FEA-B3D03E3121F7}"/>
+    <hyperlink ref="I30" r:id="rId61" xr:uid="{0C6DC726-3F6A-42ED-9743-92305E5748D0}"/>
+    <hyperlink ref="I23" r:id="rId62" xr:uid="{5ACF8061-92CB-4DB9-B0CD-D3E59F214235}"/>
+    <hyperlink ref="I14" r:id="rId63" xr:uid="{F9B9CED9-A6B9-438A-B580-E306F9DA3A1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -1658,12 +3809,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="9" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +3843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="44.4" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +3872,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="27.6" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +3901,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +3930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="27.6" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +3959,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="27.6" thickBot="1">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1837,7 +3988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="27.6" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1866,7 +4017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="27.6" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1895,7 +4046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="27.6" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
@@ -1924,7 +4075,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="27.6" thickBot="1">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
@@ -1953,7 +4104,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="27.6" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1982,7 +4133,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -2011,7 +4162,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="27.6" thickBot="1">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -2040,7 +4191,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2069,7 +4220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="27.6" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>37</v>
       </c>
@@ -2098,7 +4249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="27.6" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2127,7 +4278,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="27.6" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2156,7 +4307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="27.6" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2185,7 +4336,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="27.6" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +4365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="27.6" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
@@ -2243,7 +4394,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="27.6" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +4423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
@@ -2301,7 +4452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="27.6" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -2330,7 +4481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="27.6" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +4510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="27.6" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -2388,7 +4539,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="27.6" thickBot="1">
       <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +4568,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>49</v>
       </c>
@@ -2446,7 +4597,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="27.6" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -2475,7 +4626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="27.6" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
@@ -2504,7 +4655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="27.6" thickBot="1">
       <c r="A30" s="8" t="s">
         <v>52</v>
       </c>
@@ -2533,7 +4684,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="27.6" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -2562,7 +4713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="27.6" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>54</v>
       </c>
@@ -2591,7 +4742,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>55</v>
       </c>
@@ -2620,7 +4771,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="27.6" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>56</v>
       </c>
@@ -2649,7 +4800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="27.6" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
@@ -2678,7 +4829,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="27.6" thickBot="1">
       <c r="A36" s="11" t="s">
         <v>58</v>
       </c>
@@ -2707,7 +4858,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>59</v>
       </c>
@@ -2736,7 +4887,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>60</v>
       </c>
@@ -2765,7 +4916,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="27.6" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>61</v>
       </c>
@@ -2794,7 +4945,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="27.6" thickBot="1">
       <c r="A40" s="4" t="s">
         <v>62</v>
       </c>
@@ -2823,7 +4974,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="27.6" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -2852,7 +5003,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="27.6" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>64</v>
       </c>
@@ -2881,7 +5032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="27.6" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -2910,7 +5061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="27.6" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>66</v>
       </c>
@@ -2939,7 +5090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="27.6" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
@@ -2968,7 +5119,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="27.6" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>68</v>
       </c>
@@ -2997,7 +5148,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>69</v>
       </c>
@@ -3026,7 +5177,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="27.6" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>70</v>
       </c>
@@ -3055,7 +5206,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -3084,7 +5235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="27.6" thickBot="1">
       <c r="A50" s="8" t="s">
         <v>72</v>
       </c>
@@ -3113,7 +5264,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="27.6" thickBot="1">
       <c r="A51" s="8" t="s">
         <v>73</v>
       </c>
@@ -3142,7 +5293,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="27.6" thickBot="1">
       <c r="A52" s="12" t="s">
         <v>74</v>
       </c>
@@ -3171,7 +5322,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="27.6" thickBot="1">
       <c r="A53" s="9" t="s">
         <v>75</v>
       </c>
@@ -3200,7 +5351,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="27.6" thickBot="1">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -3229,7 +5380,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>77</v>
       </c>
@@ -3258,7 +5409,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="27.6" thickBot="1">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
@@ -3287,7 +5438,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="27.6" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
@@ -3316,7 +5467,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="27.6" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>80</v>
       </c>
@@ -3345,7 +5496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="37.799999999999997" customHeight="1" thickBot="1">
       <c r="A59" s="8" t="s">
         <v>81</v>
       </c>
@@ -3374,7 +5525,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="27.6" thickBot="1">
       <c r="A60" s="9" t="s">
         <v>82</v>
       </c>
@@ -3403,7 +5554,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="15" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -3432,7 +5583,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="27.6" thickBot="1">
       <c r="A62" s="4" t="s">
         <v>84</v>
       </c>
@@ -3461,7 +5612,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="27.6" thickBot="1">
       <c r="A63" s="4" t="s">
         <v>85</v>
       </c>
@@ -3490,7 +5641,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="27.6" thickBot="1">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,7 +5670,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" ht="27.6" thickBot="1">
       <c r="A65" s="11" t="s">
         <v>87</v>
       </c>
@@ -3548,7 +5699,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A66" s="10" t="s">
         <v>88</v>
       </c>
@@ -3577,7 +5728,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" ht="27.6" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>89</v>
       </c>
@@ -3606,7 +5757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="27.6" thickBot="1">
       <c r="A68" s="11" t="s">
         <v>90</v>
       </c>
@@ -3635,7 +5786,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" ht="27.6" thickBot="1">
       <c r="A69" s="11" t="s">
         <v>91</v>
       </c>
@@ -3664,7 +5815,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="27.6" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>92</v>
       </c>
@@ -3693,7 +5844,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="40.799999999999997" thickBot="1">
       <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
@@ -3722,7 +5873,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="27.6" thickBot="1">
       <c r="A72" s="4" t="s">
         <v>94</v>
       </c>
@@ -3751,7 +5902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" ht="27.6" thickBot="1">
       <c r="A73" s="8" t="s">
         <v>95</v>
       </c>
@@ -3780,7 +5931,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="27.6" thickBot="1">
       <c r="A74" s="1" t="s">
         <v>96</v>
       </c>
@@ -3809,7 +5960,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" ht="27.6" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>97</v>
       </c>
@@ -3836,7 +5987,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" ht="27.6" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>98</v>
       </c>
@@ -3865,7 +6016,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="27.6" thickBot="1">
       <c r="A77" s="9" t="s">
         <v>99</v>
       </c>
@@ -3894,7 +6045,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="27.6" thickBot="1">
       <c r="A78" s="4" t="s">
         <v>100</v>
       </c>
@@ -3923,7 +6074,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="27.6" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>101</v>
       </c>
@@ -3952,7 +6103,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" ht="27.6" thickBot="1">
       <c r="A80" s="4" t="s">
         <v>102</v>
       </c>
@@ -3981,7 +6132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="27.6" thickBot="1">
       <c r="A81" s="4" t="s">
         <v>103</v>
       </c>
@@ -4010,7 +6161,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="27.6" thickBot="1">
       <c r="A82" s="4" t="s">
         <v>104</v>
       </c>
@@ -4039,7 +6190,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" ht="27.6" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>105</v>
       </c>
@@ -4068,7 +6219,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" ht="15" thickBot="1">
       <c r="A84" s="9" t="s">
         <v>106</v>
       </c>
@@ -4097,7 +6248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" ht="27.6" thickBot="1">
       <c r="A85" s="9" t="s">
         <v>107</v>
       </c>
@@ -4126,7 +6277,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" ht="27.6" thickBot="1">
       <c r="A86" s="4" t="s">
         <v>108</v>
       </c>
@@ -4155,7 +6306,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" ht="27.6" thickBot="1">
       <c r="A87" s="4" t="s">
         <v>109</v>
       </c>
@@ -4184,7 +6335,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" ht="15" thickBot="1">
       <c r="A88" s="5"/>
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
@@ -4194,7 +6345,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="6"/>
     </row>
-    <row r="89" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" ht="15" thickBot="1">
       <c r="A89" s="4"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
@@ -4204,7 +6355,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="6"/>
     </row>
-    <row r="90" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" ht="15" thickBot="1">
       <c r="A90" s="4"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
@@ -4214,7 +6365,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="6"/>
     </row>
-    <row r="91" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" ht="15" thickBot="1">
       <c r="A91" s="4"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
@@ -4224,7 +6375,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="6"/>
     </row>
-    <row r="92" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" ht="15" thickBot="1">
       <c r="A92" s="5"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
@@ -4234,7 +6385,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="6"/>
     </row>
-    <row r="93" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" ht="15" thickBot="1">
       <c r="A93" s="9"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
@@ -4244,7 +6395,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="6"/>
     </row>
-    <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" ht="15" thickBot="1">
       <c r="A94" s="9"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
@@ -4254,7 +6405,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="6"/>
     </row>
-    <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" ht="15" thickBot="1">
       <c r="A95" s="4"/>
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
@@ -4264,7 +6415,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="6"/>
     </row>
-    <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" ht="15" thickBot="1">
       <c r="A96" s="4"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
@@ -4274,7 +6425,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="6"/>
     </row>
-    <row r="97" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" ht="15" thickBot="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
@@ -4284,7 +6435,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="15" thickBot="1">
       <c r="A98" s="4"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
@@ -4294,7 +6445,7 @@
       <c r="H98" s="7"/>
       <c r="I98" s="6"/>
     </row>
-    <row r="99" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="15" thickBot="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
@@ -4304,7 +6455,7 @@
       <c r="H99" s="7"/>
       <c r="I99" s="6"/>
     </row>
-    <row r="100" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" ht="15" thickBot="1">
       <c r="A100" s="4"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
@@ -4314,7 +6465,7 @@
       <c r="H100" s="7"/>
       <c r="I100" s="6"/>
     </row>
-    <row r="101" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" ht="15" thickBot="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
@@ -4324,7 +6475,7 @@
       <c r="H101" s="7"/>
       <c r="I101" s="6"/>
     </row>
-    <row r="102" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" ht="15" thickBot="1">
       <c r="A102" s="4"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
@@ -4334,7 +6485,7 @@
       <c r="H102" s="7"/>
       <c r="I102" s="6"/>
     </row>
-    <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" ht="15" thickBot="1">
       <c r="A103" s="4"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -4344,7 +6495,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="6"/>
     </row>
-    <row r="104" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" ht="15" thickBot="1">
       <c r="A104" s="4"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
@@ -4354,7 +6505,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="6"/>
     </row>
-    <row r="105" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" ht="15" thickBot="1">
       <c r="A105" s="4"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
@@ -4364,7 +6515,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="6"/>
     </row>
-    <row r="106" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="15" thickBot="1">
       <c r="I106" s="6"/>
     </row>
   </sheetData>
